--- a/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FFE9F-4739-46CC-8460-976424B67FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B237FA-5249-4AA1-8B59-BB1945014761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,7 +1360,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="11"/>

--- a/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B237FA-5249-4AA1-8B59-BB1945014761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31A5DB-4190-4244-8835-1562187BFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="5685" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="194">
   <si>
     <t>Study Title</t>
   </si>
@@ -616,9 +616,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
     <t>2021-11-09</t>
   </si>
   <si>
@@ -626,6 +623,22 @@
   </si>
   <si>
     <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>Parameter Value[Temperature]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add Parameter Value[Temperature], and modify the order of chromatograhy parameters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[temperature]</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1123,120 +1136,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="126.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1257,9 +1280,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="38.44140625" style="1"/>
+    <col min="1" max="16384" width="38.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,12 +1300,12 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>137</v>
       </c>
@@ -1290,24 +1313,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1341,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1329,15 +1352,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1371,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1382,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1393,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>135</v>
       </c>
@@ -1381,7 +1404,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1415,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1434,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1422,10 +1445,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1505,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1522,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1533,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
@@ -1521,35 +1544,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
@@ -1560,7 +1583,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1596,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>142</v>
       </c>
@@ -1581,19 +1604,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>172</v>
       </c>
@@ -1604,12 +1627,12 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
@@ -1658,64 +1681,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AK105"/>
+  <dimension ref="A1:AM105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="35" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="24.88671875" style="1"/>
+    <col min="15" max="19" width="35" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="24.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1768,67 +1793,73 @@
         <v>177</v>
       </c>
       <c r="R4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -1854,11 +1885,11 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
@@ -1866,20 +1897,22 @@
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="11"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1905,11 +1938,11 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1917,20 +1950,22 @@
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
       <c r="AJ6" s="11"/>
       <c r="AK6" s="11"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1956,11 +1991,11 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -1968,20 +2003,22 @@
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2019,8 +2056,10 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2058,8 +2097,10 @@
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2097,8 +2138,10 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2136,8 +2179,10 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2175,8 +2220,10 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2214,8 +2261,10 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2253,8 +2302,10 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2292,8 +2343,10 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2331,8 +2384,10 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -2370,8 +2425,10 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -2409,8 +2466,10 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -2448,8 +2507,10 @@
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2487,8 +2548,10 @@
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2526,8 +2589,10 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2565,8 +2630,10 @@
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2604,8 +2671,10 @@
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2643,8 +2712,10 @@
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -2682,8 +2753,10 @@
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -2721,8 +2794,10 @@
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
       <c r="AK26" s="11"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -2760,8 +2835,10 @@
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -2799,8 +2876,10 @@
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
       <c r="AK28" s="11"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -2838,8 +2917,10 @@
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -2877,8 +2958,10 @@
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
       <c r="AK30" s="11"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -2916,8 +2999,10 @@
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -2955,8 +3040,10 @@
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -2994,8 +3081,10 @@
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -3033,8 +3122,10 @@
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -3072,8 +3163,10 @@
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -3111,8 +3204,10 @@
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -3150,8 +3245,10 @@
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -3189,8 +3286,10 @@
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -3228,8 +3327,10 @@
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -3267,8 +3368,10 @@
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -3306,8 +3409,10 @@
       <c r="AI41" s="11"/>
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -3345,8 +3450,10 @@
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
       <c r="AK42" s="11"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -3384,8 +3491,10 @@
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
       <c r="AK43" s="11"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -3423,8 +3532,10 @@
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
       <c r="AK44" s="11"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -3462,8 +3573,10 @@
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -3501,8 +3614,10 @@
       <c r="AI46" s="11"/>
       <c r="AJ46" s="11"/>
       <c r="AK46" s="11"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -3540,8 +3655,10 @@
       <c r="AI47" s="11"/>
       <c r="AJ47" s="11"/>
       <c r="AK47" s="11"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -3579,8 +3696,10 @@
       <c r="AI48" s="11"/>
       <c r="AJ48" s="11"/>
       <c r="AK48" s="11"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
@@ -3618,8 +3737,10 @@
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -3657,8 +3778,10 @@
       <c r="AI50" s="11"/>
       <c r="AJ50" s="11"/>
       <c r="AK50" s="11"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -3696,8 +3819,10 @@
       <c r="AI51" s="11"/>
       <c r="AJ51" s="11"/>
       <c r="AK51" s="11"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -3735,8 +3860,10 @@
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11"/>
       <c r="AK52" s="11"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -3774,8 +3901,10 @@
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -3813,8 +3942,10 @@
       <c r="AI54" s="11"/>
       <c r="AJ54" s="11"/>
       <c r="AK54" s="11"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -3852,8 +3983,10 @@
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11"/>
       <c r="AK55" s="11"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -3891,8 +4024,10 @@
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11"/>
       <c r="AK56" s="11"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -3930,8 +4065,10 @@
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
@@ -3969,8 +4106,10 @@
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11"/>
       <c r="AK58" s="11"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -4008,8 +4147,10 @@
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11"/>
       <c r="AK59" s="11"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -4047,8 +4188,10 @@
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -4086,8 +4229,10 @@
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
       <c r="AK61" s="11"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
@@ -4125,8 +4270,10 @@
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -4164,8 +4311,10 @@
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
       <c r="AK63" s="11"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
@@ -4203,8 +4352,10 @@
       <c r="AI64" s="11"/>
       <c r="AJ64" s="11"/>
       <c r="AK64" s="11"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -4242,8 +4393,10 @@
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
       <c r="AK65" s="11"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="13"/>
@@ -4281,8 +4434,10 @@
       <c r="AI66" s="11"/>
       <c r="AJ66" s="11"/>
       <c r="AK66" s="11"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="13"/>
@@ -4320,8 +4475,10 @@
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
       <c r="AK67" s="11"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="13"/>
@@ -4359,8 +4516,10 @@
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="13"/>
@@ -4398,8 +4557,10 @@
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
       <c r="AK69" s="11"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="13"/>
@@ -4437,8 +4598,10 @@
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
       <c r="AK70" s="11"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="11"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="13"/>
@@ -4476,8 +4639,10 @@
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
       <c r="AK71" s="11"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13"/>
@@ -4515,8 +4680,10 @@
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
       <c r="AK72" s="11"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="13"/>
@@ -4554,8 +4721,10 @@
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
       <c r="AK73" s="11"/>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="13"/>
@@ -4593,8 +4762,10 @@
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
       <c r="AK74" s="11"/>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="13"/>
@@ -4632,8 +4803,10 @@
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
       <c r="AK75" s="11"/>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
@@ -4671,8 +4844,10 @@
       <c r="AI76" s="11"/>
       <c r="AJ76" s="11"/>
       <c r="AK76" s="11"/>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
@@ -4710,8 +4885,10 @@
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
       <c r="AK77" s="11"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="13"/>
@@ -4749,8 +4926,10 @@
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
       <c r="AK78" s="11"/>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="13"/>
@@ -4788,8 +4967,10 @@
       <c r="AI79" s="11"/>
       <c r="AJ79" s="11"/>
       <c r="AK79" s="11"/>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="13"/>
@@ -4827,8 +5008,10 @@
       <c r="AI80" s="11"/>
       <c r="AJ80" s="11"/>
       <c r="AK80" s="11"/>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="13"/>
@@ -4866,8 +5049,10 @@
       <c r="AI81" s="11"/>
       <c r="AJ81" s="11"/>
       <c r="AK81" s="11"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="13"/>
@@ -4905,8 +5090,10 @@
       <c r="AI82" s="11"/>
       <c r="AJ82" s="11"/>
       <c r="AK82" s="11"/>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL82" s="11"/>
+      <c r="AM82" s="11"/>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="13"/>
@@ -4944,8 +5131,10 @@
       <c r="AI83" s="11"/>
       <c r="AJ83" s="11"/>
       <c r="AK83" s="11"/>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="13"/>
@@ -4983,8 +5172,10 @@
       <c r="AI84" s="11"/>
       <c r="AJ84" s="11"/>
       <c r="AK84" s="11"/>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="13"/>
@@ -5022,8 +5213,10 @@
       <c r="AI85" s="11"/>
       <c r="AJ85" s="11"/>
       <c r="AK85" s="11"/>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL85" s="11"/>
+      <c r="AM85" s="11"/>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="13"/>
@@ -5061,8 +5254,10 @@
       <c r="AI86" s="11"/>
       <c r="AJ86" s="11"/>
       <c r="AK86" s="11"/>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="13"/>
@@ -5100,8 +5295,10 @@
       <c r="AI87" s="11"/>
       <c r="AJ87" s="11"/>
       <c r="AK87" s="11"/>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="13"/>
@@ -5139,8 +5336,10 @@
       <c r="AI88" s="11"/>
       <c r="AJ88" s="11"/>
       <c r="AK88" s="11"/>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="13"/>
@@ -5178,8 +5377,10 @@
       <c r="AI89" s="11"/>
       <c r="AJ89" s="11"/>
       <c r="AK89" s="11"/>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL89" s="11"/>
+      <c r="AM89" s="11"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="13"/>
@@ -5217,8 +5418,10 @@
       <c r="AI90" s="11"/>
       <c r="AJ90" s="11"/>
       <c r="AK90" s="11"/>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL90" s="11"/>
+      <c r="AM90" s="11"/>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="13"/>
@@ -5256,8 +5459,10 @@
       <c r="AI91" s="11"/>
       <c r="AJ91" s="11"/>
       <c r="AK91" s="11"/>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL91" s="11"/>
+      <c r="AM91" s="11"/>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="13"/>
@@ -5295,8 +5500,10 @@
       <c r="AI92" s="11"/>
       <c r="AJ92" s="11"/>
       <c r="AK92" s="11"/>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="13"/>
@@ -5334,8 +5541,10 @@
       <c r="AI93" s="11"/>
       <c r="AJ93" s="11"/>
       <c r="AK93" s="11"/>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="13"/>
@@ -5373,8 +5582,10 @@
       <c r="AI94" s="11"/>
       <c r="AJ94" s="11"/>
       <c r="AK94" s="11"/>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL94" s="11"/>
+      <c r="AM94" s="11"/>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="13"/>
@@ -5412,8 +5623,10 @@
       <c r="AI95" s="11"/>
       <c r="AJ95" s="11"/>
       <c r="AK95" s="11"/>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL95" s="11"/>
+      <c r="AM95" s="11"/>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="13"/>
@@ -5451,8 +5664,10 @@
       <c r="AI96" s="11"/>
       <c r="AJ96" s="11"/>
       <c r="AK96" s="11"/>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL96" s="11"/>
+      <c r="AM96" s="11"/>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="13"/>
@@ -5490,8 +5705,10 @@
       <c r="AI97" s="11"/>
       <c r="AJ97" s="11"/>
       <c r="AK97" s="11"/>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="13"/>
@@ -5529,8 +5746,10 @@
       <c r="AI98" s="11"/>
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL98" s="11"/>
+      <c r="AM98" s="11"/>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="13"/>
@@ -5568,8 +5787,10 @@
       <c r="AI99" s="11"/>
       <c r="AJ99" s="11"/>
       <c r="AK99" s="11"/>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL99" s="11"/>
+      <c r="AM99" s="11"/>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="13"/>
@@ -5607,8 +5828,10 @@
       <c r="AI100" s="11"/>
       <c r="AJ100" s="11"/>
       <c r="AK100" s="11"/>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL100" s="11"/>
+      <c r="AM100" s="11"/>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="13"/>
@@ -5646,8 +5869,10 @@
       <c r="AI101" s="11"/>
       <c r="AJ101" s="11"/>
       <c r="AK101" s="11"/>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL101" s="11"/>
+      <c r="AM101" s="11"/>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="13"/>
@@ -5685,8 +5910,10 @@
       <c r="AI102" s="11"/>
       <c r="AJ102" s="11"/>
       <c r="AK102" s="11"/>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL102" s="11"/>
+      <c r="AM102" s="11"/>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="13"/>
@@ -5724,8 +5951,10 @@
       <c r="AI103" s="11"/>
       <c r="AJ103" s="11"/>
       <c r="AK103" s="11"/>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL103" s="11"/>
+      <c r="AM103" s="11"/>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="13"/>
@@ -5763,8 +5992,10 @@
       <c r="AI104" s="11"/>
       <c r="AJ104" s="11"/>
       <c r="AK104" s="11"/>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL104" s="11"/>
+      <c r="AM104" s="11"/>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="13"/>
@@ -5802,6 +6033,8 @@
       <c r="AI105" s="11"/>
       <c r="AJ105" s="11"/>
       <c r="AK105" s="11"/>
+      <c r="AL105" s="11"/>
+      <c r="AM105" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5821,15 +6054,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="96.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -5840,7 +6073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -5851,7 +6084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -5862,7 +6095,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -5873,7 +6106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -5884,7 +6117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
@@ -5895,7 +6128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -5906,7 +6139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>160</v>
       </c>
@@ -5917,7 +6150,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -5928,7 +6161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -5939,7 +6172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -5950,7 +6183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -5961,7 +6194,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -5972,7 +6205,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -5983,7 +6216,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -5994,7 +6227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -6005,7 +6238,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -6016,7 +6249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -6027,7 +6260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -6038,7 +6271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -6049,7 +6282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6060,7 +6293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -6071,7 +6304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -6082,7 +6315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
@@ -6093,7 +6326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>103</v>
       </c>
@@ -6101,7 +6334,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
@@ -6109,7 +6342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
@@ -6117,57 +6350,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>87</v>
       </c>

--- a/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_LC-DAD-MS_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31A5DB-4190-4244-8835-1562187BFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E79EA77-7F2E-4144-BB85-0F8ABFF15747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="5685" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="7410" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -595,10 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model;Column type;Guard column;Detector;Signal range;Resolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scan polarity;Scan m/z range;Instrument;Ion source;Mass analyzer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -638,6 +634,10 @@
   </si>
   <si>
     <t>Unit[temperature]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromatography instrument;Autosampler model;Column model;Column type;Resolution;Temperature;Guard column;Detector;Signal range</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,31 +1235,31 @@
         <v>156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1514,10 +1516,10 @@
         <v>133</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1793,10 +1795,10 @@
         <v>177</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>40</v>
@@ -6224,7 +6226,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
